--- a/docs/ST3/ST3_07.08.24_output.xlsx
+++ b/docs/ST3/ST3_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731674533.4353733</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731674534.2420933</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674533.4353733.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674534.2420933.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.66</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.94</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.2799999999999727</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731674535.792866</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731674536.4181578</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674535.792866.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674536.4181578.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>279.98</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.8700000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731674539.7455692</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731674541.7996128</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674539.7455692.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731674541.7996128.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.66</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.03999999999996362</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731674543.0577323</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731674543.0577323.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731674543.0577323.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>281.3</v>
       </c>
-      <c r="J6" t="n">
-        <v>281.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>281.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.08999999999997499</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731674544.6169293</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731674545.1925848</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674544.6169293.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674545.1925848.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.16</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731674555.5333815</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731674556.2100463</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674555.5333815.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674556.2100463.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.68</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731674564.0994933</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731674564.649547</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674564.0994933.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674564.649547.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6407.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6398.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>9</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731674565.9302976</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731674566.137067</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674565.9302976.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674566.137067.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6389</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6365.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>23.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731674566.5326238</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731674569.550067</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674566.5326238.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674569.550067.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6381.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6391</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731674573.329085</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731674575.0484676</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674573.329085.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674575.0484676.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6392.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6400.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-8</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731674575.0624251</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731674576.4784966</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674575.0624251.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674576.4784966.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6400.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>34</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731674578.6246471</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731674578.95045</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674578.6246471.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674578.95045.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6463</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6489.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>26.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731674579.126916</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731674580.2916014</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674579.126916.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674580.2916014.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6476</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6450</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-26</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731674585.3744378</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731674585.4956617</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674585.3744378.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674585.4956617.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>492.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>491.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731674585.7893314</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731674586.968069</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674585.7893314.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674586.968069.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>491.95</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>492.75</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.8000000000000114</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731674589.8137174</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731674593.4041822</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674589.8137174.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674593.4041822.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>496.55</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>498.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.099999999999966</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731674594.1804686</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731674595.1115532</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674594.1804686.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674595.1115532.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>498.15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>498.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.6500000000000341</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731674597.195743</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731674597.5290701</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674597.195743.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674597.5290701.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>499.95</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>501.7</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.75</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1467,95 +1591,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731674602.424289</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731674602.424289.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731674602.424289.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504.9</v>
       </c>
-      <c r="J21" t="n">
-        <v>504.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>503.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1.099999999999966</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731674604.9660697</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731674606.951043</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674604.9660697.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674606.951043.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>223.18</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>222.88</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731674612.7753966</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731674615.9836965</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674612.7753966.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674615.9836965.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>223.83</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>225.49</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.659999999999997</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731674616.6758645</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731674617.1825528</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674616.6758645.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674617.1825528.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>226.06</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>225.41</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.6500000000000057</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1667,95 +1815,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731674620.4580283</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731674620.4580283.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731674620.4580283.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>226.31</v>
       </c>
-      <c r="J25" t="n">
-        <v>226.31</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>225.97</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731674621.2436218</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731674621.6636052</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674621.2436218.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674621.6636052.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1003.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1001.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.199999999999932</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731674621.9221685</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731674622.5643718</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674621.9221685.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674622.5643718.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1002</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>998.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731674623.2048516</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731674624.7763884</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674623.2048516.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674624.7763884.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1000.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>999</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731674634.8988194</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731674635.458209</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674634.8988194.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674635.458209.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1010.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1008.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.600000000000023</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1919,95 +2097,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731674638.5161664</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731674638.5161664.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731674638.5161664.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1011.4</v>
       </c>
-      <c r="J30" t="n">
-        <v>1011.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1011.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731674639.8457525</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731674641.0576293</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674639.8457525.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674641.0576293.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.855</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.841</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01400000000000112</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731674647.0608957</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731674648.100927</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674647.0608957.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674648.100927.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.909</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.916</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731674653.9150043</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731674656.3292716</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674653.9150043.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674656.3292716.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.899</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.889</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.01000000000000156</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731674657.7306736</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731674658.8639853</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674657.7306736.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674658.8639853.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>124.84</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>123.14</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731674668.8504725</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731674669.4845061</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674668.8504725.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674669.4845061.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>122.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>123.3</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.5</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731674670.2370436</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731674670.6203675</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674670.2370436.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674670.6203675.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>123.04</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>122.98</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731674672.6619668</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731674673.7469444</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674672.6619668.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674673.7469444.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>123.32</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>123.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731674674.9189706</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731674675.1319036</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674674.9189706.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674675.1319036.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>123.78</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>124.16</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2379,43 +2611,49 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731674675.6754544</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731674675.6754544.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731674675.6754544.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>124.14</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>124.14</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731674676.574463</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731674677.6878881</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674676.574463.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674677.6878881.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>159.88</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>158.78</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731674678.885088</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731674679.3880498</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674678.885088.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674679.3880498.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>158.12</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>158.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2527,51 +2777,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731674684.8300073</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731674687.0843098</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674684.8300073.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674687.0843098.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>159.08</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>159.78</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.6999999999999886</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -2579,51 +2835,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731674687.099242</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731674687.7018135</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674687.099242.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674687.7018135.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>159.78</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>159.98</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731674691.2899003</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731674693.3960476</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674691.2899003.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674693.3960476.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>160.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>160.76</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2683,95 +2951,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731674694.505237</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731674694.505237.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731674694.505237.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>160.66</v>
       </c>
-      <c r="J45" t="n">
-        <v>160.66</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>160.34</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731674695.6461902</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731674696.016474</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674695.6461902.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674696.016474.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>49.215</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>49.035</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731674697.3376958</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731674697.629599</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674697.3376958.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674697.629599.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>48.91</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>48.745</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731674705.9129305</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731674706.5660858</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674705.9129305.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674706.5660858.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>48.685</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>48.855</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731674706.8899999</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731674708.8827088</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674706.8899999.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674708.8827088.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>48.765</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>48.795</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2935,51 +3233,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731674710.1354551</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731674711.6231513</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674710.1354551.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674711.6231513.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>48.905</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>48.93</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2987,51 +3291,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731674713.2618375</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731674713.5820785</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674713.2618375.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674713.5820785.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.145</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.245</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3039,51 +3349,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731674715.8172033</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731674716.714641</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674715.8172033.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674716.714641.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1358</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1358.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3091,51 +3407,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731674719.7660384</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731674720.5769365</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674719.7660384.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674720.5769365.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1371.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1370.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731674722.1178553</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731674725.7820165</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674722.1178553.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674725.7820165.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1368.4</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1372.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-4</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -3195,95 +3523,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731674731.3166833</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731674731.3166833.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731674731.3166833.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1385</v>
       </c>
-      <c r="J55" t="n">
-        <v>1385</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1382.4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-2.599999999999909</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731674732.7238982</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731674732.9693236</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674732.7238982.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674732.9693236.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>59.96</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>59.98</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3291,51 +3631,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731674734.46679</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731674736.0804708</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674734.46679.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674736.0804708.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>59.74</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>59.55</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1900000000000048</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3343,51 +3689,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731674739.1672633</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731674741.472801</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674739.1672633.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674741.472801.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>60.2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>59.91</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.2900000000000063</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -3395,51 +3747,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731674743.2235808</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731674743.8921103</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674743.2235808.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674743.8921103.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>60.09</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>60.14</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3447,51 +3805,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731674745.1285949</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731674746.2578692</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674745.1285949.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674746.2578692.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>60.35</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>60.62</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3499,51 +3863,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731674750.2995508</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731674751.628824</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674750.2995508.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674751.628824.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>61</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>60.78</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -3551,51 +3921,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731674752.0307755</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731674752.2134666</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674752.0307755.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674752.2134666.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>96.17</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>95.95999999999999</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3603,51 +3979,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731674752.39004</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731674753.715679</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674752.39004.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674753.715679.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>95.34999999999999</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.75</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -3655,51 +4037,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731674754.0847812</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731674755.52389</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674754.0847812.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674755.52389.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>95.48999999999999</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>95.56999999999999</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3707,51 +4095,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731674758.9012165</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731674760.9654493</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674758.9012165.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674760.9654493.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>96.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>96.59</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.2099999999999937</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731674765.13779</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731674767.3029847</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674765.13779.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674767.3029847.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>98</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3811,95 +4211,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731674770.1036677</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731674770.1036677.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731674770.1036677.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="J67" t="n">
-        <v>98.18000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>98.11</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.07000000000000739</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731674773.8596961</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731674774.5109472</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674773.8596961.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674774.5109472.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>55.11</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>55.33</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731674782.0217507</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731674784.470928</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674782.0217507.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674784.470928.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>55.88</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>55.95</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731674786.1125784</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731674786.816561</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674786.1125784.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674786.816561.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>56.02</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>56.33</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.3099999999999952</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731674789.572174</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731674790.4948027</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674789.572174.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674790.4948027.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>141.68</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>141.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731674796.9083984</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731674797.4738173</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674796.9083984.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674797.4738173.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>143.42</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>143.84</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731674798.154191</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731674798.7280655</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674798.154191.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674798.7280655.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>143.88</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>145.56</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>1.680000000000007</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -4167,95 +4609,107 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731674799.2361612</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731674799.2361612.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731674799.2361612.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>145.6</v>
       </c>
-      <c r="J74" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>145.96</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.3600000000000136</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731674803.4539428</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731674804.4425714</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674803.4539428.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674804.4425714.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>19.783</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>19.639</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1440000000000019</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731674805.0377846</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731674805.1680276</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674805.0377846.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674805.1680276.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>19.65</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>19.56</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -4315,51 +4775,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731674805.4698699</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731674807.3874037</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674805.4698699.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674807.3874037.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>19.64</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>19.553</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.08699999999999974</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4367,51 +4833,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731674811.490983</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731674813.2709706</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674811.490983.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674813.2709706.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>19.714</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>19.635</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.07899999999999707</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4419,51 +4891,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731674814.3267415</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731674814.91275</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674814.3267415.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674814.91275.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>19.736</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>19.787</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.05099999999999838</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4471,51 +4949,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731674815.440188</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731674817.0713243</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674815.440188.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674817.0713243.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>19.771</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>19.819</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.04799999999999827</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4523,51 +5007,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731674821.4973204</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731674821.5933757</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674821.4973204.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674821.5933757.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>20.249</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>20.293</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.04400000000000048</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4575,51 +5065,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731674824.4739554</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731674824.9339619</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674824.4739554.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674824.9339619.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>664.8</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>664.35</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.4499999999999318</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4627,51 +5123,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731674830.05976</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731674830.424942</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674830.05976.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674830.424942.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>667.65</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>666.25</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4679,51 +5181,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731674833.4131947</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731674834.0604653</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674833.4131947.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674834.0604653.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>669.45</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>667.5</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-1.950000000000045</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -4731,51 +5239,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731674835.835778</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731674837.6841676</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674835.835778.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674837.6841676.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>670.55</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>669.85</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.6999999999999318</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4783,51 +5297,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731674840.5308836</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731674841.7621613</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674840.5308836.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674841.7621613.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>147.76</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>145.59</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>2.169999999999987</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -4835,51 +5355,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731674852.4811707</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731674853.7294235</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674852.4811707.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674853.7294235.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>149.83</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>150.8</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.9699999999999989</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4887,51 +5413,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731674854.7181802</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731674856.443984</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674854.7181802.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674856.443984.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>151.84</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>152.5</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4939,95 +5471,107 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731674858.6843436</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731674858.6843436.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731674858.6843436.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>155.78</v>
       </c>
-      <c r="J89" t="n">
-        <v>155.78</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>155.8</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731674859.688976</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731674860.3028</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674859.688976.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674860.3028.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.09514</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.09546</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.0003200000000000008</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -5035,51 +5579,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731674862.5121412</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731674863.2269058</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674862.5121412.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674863.2269058.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>0.09512000000000001</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>0.09534000000000001</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.000219999999999998</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -5087,51 +5637,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731674864.6304712</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731674866.4732206</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674864.6304712.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674866.4732206.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>0.0961</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.096</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.0001000000000000029</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -5139,51 +5695,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731674870.3303492</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731674870.8021324</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674870.3303492.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674870.8021324.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.0004200000000000037</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -5191,51 +5753,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731674876.7646358</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731674877.9360595</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674876.7646358.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674877.9360595.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2899.45</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2878.75</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>20.69999999999982</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -5243,51 +5811,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731674886.2879133</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731674887.094283</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674886.2879133.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674887.094283.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2893.3</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2904.3</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>11</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5295,51 +5869,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731674887.4274735</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731674889.2684495</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674887.4274735.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674889.2684495.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2898.45</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2909.9</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>11.45000000000027</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -5347,51 +5927,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731674890.1903327</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731674891.6456444</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674890.1903327.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674891.6456444.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2913.05</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2907.55</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-5.5</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -5399,51 +5985,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731674893.5171542</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731674894.0638506</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674893.5171542.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674894.0638506.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2918.45</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2923.75</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>5.300000000000182</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5549,19 +6141,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7700000000000102</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128333333333335</v>
+        <v>0.1166666666666671</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7299999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -5615,19 +6207,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>3.400000000000034</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.75</v>
+        <v>0.5666666666666723</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="F7" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -5659,19 +6251,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9799999999999898</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1633333333333316</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="E9" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5681,16 +6273,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.999999999999886</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.199999999999977</v>
+        <v>1.159999999999991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="F10" t="n">
         <v>0.12</v>
@@ -5725,19 +6317,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.480000000000018</v>
+        <v>2.840000000000032</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6200000000000045</v>
+        <v>0.710000000000008</v>
       </c>
       <c r="E12" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="F12" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -5769,19 +6361,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5500000000000682</v>
+        <v>0.6400000000000432</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1375000000000171</v>
+        <v>0.1600000000000108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
@@ -5791,16 +6383,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.799999999999983</v>
+        <v>3.819999999999993</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9499999999999957</v>
+        <v>0.9549999999999983</v>
       </c>
       <c r="E15" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F15" t="n">
         <v>0.64</v>
@@ -5813,19 +6405,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.310000000000002</v>
+        <v>0.9699999999999989</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3275000000000006</v>
+        <v>0.2424999999999997</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17">
@@ -5857,19 +6449,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.799999999999955</v>
+        <v>-8.399999999999864</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.449999999999989</v>
+        <v>-2.099999999999966</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.42</v>
+        <v>-0.61</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="19">
@@ -5901,13 +6493,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03100000000000236</v>
+        <v>0.03100000000000058</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01033333333333412</v>
+        <v>0.01033333333333353</v>
       </c>
       <c r="E20" t="n">
         <v>0.26</v>
